--- a/DOM_Banner/output/dept_banner/Aadhavi Sridharan_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Aadhavi Sridharan_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">UCLA Cardiac Arrhythmia Center, David Geffen School of Medicine at UCLA, Los Angeles, CA, United States of America; ; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4296935058</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Autonomic nervous system and arrhythmias in structural heart disease</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Autonomic Neuroscience</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.autneu.2022.103037</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36201902</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.autneu.2022.103037</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Cardiovascular Imaging and Hemodynamic Laboratory, Tufts Medical Center, Boston, Massachusetts, USA.; Cardiovascular Imaging and Hemodynamic Laboratory, Tufts Medical Center, Boston, Massachusetts, USA.; Cardiovascular Imaging and Hemodynamic Laboratory, Tufts Medical Center, Boston, Massachusetts, USA.; Cardiovascular Imaging and Hemodynamic Laboratory, Tufts Medical Center, Boston, Massachusetts, USA.; Heart Failure and Cardiac Transplant Program, Tufts Medical Center, Boston, Massachusetts, USA.; Heart Failure and Cardiac Transplant Program, Tufts Medical Center, Boston, Massachusetts, USA.; Cardiovascular Imaging and Hemodynamic Laboratory, Tufts Medical Center, Boston, Massachusetts, USA.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4224227878</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Accuracy of echocardiographic estimations of right heart pressures in adult heart transplant recipients</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-04-22</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Clinical Cardiology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/clc.23835</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35451518</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/clc.23835</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Cardiovascular Imaging and Hemodynamic Laboratory, Tufts Medical Center, Boston, Massachusetts, USA.; Cardiovascular Imaging and Hemodynamic Laboratory, Tufts Medical Center, Boston, Massachusetts, USA.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282974780</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Response to letter to the editor</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-06-14</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Clinical Cardiology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Wiley</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/clc.23872</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35702820</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/clc.23872</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4205503040</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Uni vs bi: What to do when they don’t see eye to eye?</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Heart Rhythm</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.hrthm.2022.01.025</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>publisher-specific-oa</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>acceptedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35066179</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.hrthm.2022.01.025</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>UCLA Ronald Reagan Medical Center, Los Angeles, USA; Cardiac Arrhythmia Service, Massachusetts General Hospital, Boston, USA; New England Cardiac Arrhythmia Center, Tufts Medical Center, Boston, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4285277573</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Pacemaker Interrogation and Programming</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Springer eBooks</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-030-95259-4_26</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-030-95259-4_26</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4286313163</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>PO-637-07 EFFECT OF BILATERAL CARDIAC SYMPATHETIC DENERVATION ON EXERCISE TOLERANCE AND CARDIAC FUNCTION</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Heart Rhythm</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.hrthm.2022.03.955</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.hrthm.2022.03.955</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
